--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410334.3225446232</v>
+        <v>-412823.0615741403</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>280.4275086341281</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>132.987015343851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>48.10052454154932</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.0065063168757</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>87.90466670537648</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>136.9874663242783</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>177.2979137777574</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>85.43964093246944</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>29.28952983701035</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341.4317916655621</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>310.4447120429606</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>45.98521326965216</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>92.13617846472208</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>106.2078024559162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>248.8079271025193</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>47.88058113793238</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>30.068301314058</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>52.54490042791004</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>77.39507264402462</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.4285301601181</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>22.61263105777477</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1469.301147045409</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1100.338630104997</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1100.338630104997</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1855.900987109531</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124869</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W4" t="n">
-        <v>542.9636223427266</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X4" t="n">
-        <v>542.9636223427266</v>
+        <v>471.1308394896942</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.9636223427266</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.969111598456</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1406.006594658045</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1047.740896051294</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>661.9526434530499</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,13 +4577,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4595,22 +4595,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>2161.568951662578</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
@@ -4644,46 +4644,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>449.8213709509845</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>242.3146868880735</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>96.09750010593123</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4753,22 +4753,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812242</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.4698357812242</v>
+        <v>410.0175235133545</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4841,13 +4841,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533244</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557432</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>410.9915598002983</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>410.9915598002983</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>260.8749203879626</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>112.9618268055694</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>827.8201588841222</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>538.7172920097657</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>538.7172920097657</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>538.7172920097657</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X10" t="n">
-        <v>310.7277411117484</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>410.9915598002983</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>251.5626541092253</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>746.8882603249843</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2156.827640693835</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U13" t="n">
-        <v>1867.752414038033</v>
+        <v>1975.033022579364</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.067925832146</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.650755795185</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>283.8927175774227</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>283.8927175774227</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>142.1808864196207</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2416.591062050909</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.887426582372</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.210734949511</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V22" t="n">
-        <v>1630.526246743624</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.109076706663</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6136,7 +6136,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6373,7 +6373,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>198.744407872558</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>101.5028614381337</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>194.7652431262839</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>355.5309219143749</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.6799866467183</v>
       </c>
     </row>
     <row r="5">
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.528519358488624e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.1976478713721</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.329716221308729</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>33.38525518063315</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>36.30694539606369</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>128.4813855737345</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>208.7894017452195</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.8182909385097</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>117.6820817884491</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1144643.894726304</v>
+        <v>1144643.894726305</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.309891502</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35180.04910159843</v>
+        <v>35180.04910159823</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220315.809455543</v>
+        <v>-1220571.678694953</v>
       </c>
       <c r="C6" t="n">
-        <v>85833.93478705347</v>
+        <v>85833.93478705391</v>
       </c>
       <c r="D6" t="n">
-        <v>85833.93478705343</v>
+        <v>85833.93478705354</v>
       </c>
       <c r="E6" t="n">
-        <v>-159470.3217466398</v>
+        <v>-159505.0596720761</v>
       </c>
       <c r="F6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352805</v>
       </c>
       <c r="G6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352795</v>
       </c>
       <c r="H6" t="n">
-        <v>165942.1400607156</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="I6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="J6" t="n">
-        <v>-51589.06233656207</v>
+        <v>-51623.80026199788</v>
       </c>
       <c r="K6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352797</v>
       </c>
       <c r="L6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="M6" t="n">
-        <v>80887.11212520364</v>
+        <v>80852.37419976761</v>
       </c>
       <c r="N6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352796</v>
       </c>
       <c r="O6" t="n">
-        <v>141345.2863349791</v>
+        <v>141345.2863349789</v>
       </c>
       <c r="P6" t="n">
-        <v>160773.0043286108</v>
+        <v>160773.0043286107</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26796,7 +26796,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.20017876409412</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>338.1374141145043</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>164.5164920197153</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>269.8885794174331</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,22 +27667,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.6972581811446</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>81.80718016615839</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>67.06289057282774</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.30204999791852</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>38.79625667445242</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>99.43583475327908</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>127.4127708114471</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847159</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936921</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>159.339384910357</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103587</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
